--- a/productos.xlsx
+++ b/productos.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,65 +411,94 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2632-01</v>
+        <v>8091-04</v>
       </c>
       <c r="B2" t="str">
-        <v>DURA ACEITE VERDE FORTUNA</v>
+        <v>ULTRAWOOD BARNIZ TRANSPARENTE</v>
       </c>
       <c r="C2" t="str">
-        <v>DURA ESMALTE</v>
+        <v>ULTRA WOOD</v>
       </c>
       <c r="D2" t="str">
-        <v>Q 95.25</v>
+        <v>Q 37.40</v>
       </c>
       <c r="E2" t="str">
-        <v>Q 125.00</v>
+        <v>Q 60.00</v>
       </c>
       <c r="F2" t="str">
-        <v>Q 105.00</v>
+        <v>Q 50.00</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2601-04</v>
+        <v>8095-04</v>
       </c>
       <c r="B3" t="str">
-        <v>DURA ACEITE NEGRO</v>
+        <v>ULTRAWOOD BARNIZ NOGAL OBSCURO</v>
       </c>
       <c r="C3" t="str">
-        <v>DURA ESMALTE</v>
+        <v>ULTRA WOOD</v>
       </c>
       <c r="D3" t="str">
-        <v>Q 25.50</v>
+        <v>Q 37.40</v>
       </c>
       <c r="E3" t="str">
-        <v>Q 40.00</v>
+        <v>Q 60.00</v>
       </c>
       <c r="F3" t="str">
-        <v>Q 35.00</v>
+        <v>Q 50.00</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>8091-01</v>
+      </c>
+      <c r="B4" t="str">
+        <v>ULTRA WOOD BARNIZ TRANSPARENTE</v>
+      </c>
+      <c r="C4" t="str">
+        <v>ULTRA WOOD</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Q 117.90</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Q 175.00</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Q 140.00</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
 </worksheet>
 </file>